--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H2">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I2">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J2">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N2">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O2">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P2">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q2">
-        <v>1244.875630243261</v>
+        <v>801.0390686165973</v>
       </c>
       <c r="R2">
-        <v>11203.88067218935</v>
+        <v>7209.351617549377</v>
       </c>
       <c r="S2">
-        <v>0.03538381975691444</v>
+        <v>0.02229735992670841</v>
       </c>
       <c r="T2">
-        <v>0.03917584434031001</v>
+        <v>0.02329938770889092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H3">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I3">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J3">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N3">
         <v>161.160385</v>
       </c>
       <c r="O3">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P3">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q3">
-        <v>2737.053377694005</v>
+        <v>1927.650682025369</v>
       </c>
       <c r="R3">
-        <v>24633.48039924604</v>
+        <v>17348.85613822832</v>
       </c>
       <c r="S3">
-        <v>0.07779685056767767</v>
+        <v>0.05365720943463361</v>
       </c>
       <c r="T3">
-        <v>0.0861342084869209</v>
+        <v>0.05606852695135386</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H4">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I4">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J4">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N4">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O4">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P4">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q4">
-        <v>9.638834147672002</v>
+        <v>8.390200357009778</v>
       </c>
       <c r="R4">
-        <v>86.74950732904801</v>
+        <v>75.511803213088</v>
       </c>
       <c r="S4">
-        <v>0.00027397015562219</v>
+        <v>0.0002335458088711357</v>
       </c>
       <c r="T4">
-        <v>0.0003033310774325901</v>
+        <v>0.0002440411944087235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H5">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I5">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J5">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N5">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O5">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P5">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q5">
-        <v>1353.723241264563</v>
+        <v>250.371890879312</v>
       </c>
       <c r="R5">
-        <v>8122.339447587378</v>
+        <v>1502.231345275872</v>
       </c>
       <c r="S5">
-        <v>0.03847765833466527</v>
+        <v>0.006969238312068657</v>
       </c>
       <c r="T5">
-        <v>0.0284008296043074</v>
+        <v>0.00485495400957139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.950239</v>
+        <v>35.88321066666667</v>
       </c>
       <c r="H6">
-        <v>152.850717</v>
+        <v>107.649632</v>
       </c>
       <c r="I6">
-        <v>0.1520006117784607</v>
+        <v>0.08317795499144418</v>
       </c>
       <c r="J6">
-        <v>0.1540898474582185</v>
+        <v>0.08448843719082051</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N6">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O6">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P6">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q6">
-        <v>2.403390707282</v>
+        <v>0.7401151421404445</v>
       </c>
       <c r="R6">
-        <v>21.630516365538</v>
+        <v>6.661036279264001</v>
       </c>
       <c r="S6">
-        <v>6.831296358118242E-05</v>
+        <v>2.060150916235912E-05</v>
       </c>
       <c r="T6">
-        <v>7.563394924762759E-05</v>
+        <v>2.152732659560799E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J7">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N7">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O7">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P7">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q7">
-        <v>371.3146627877315</v>
+        <v>339.2538329136106</v>
       </c>
       <c r="R7">
-        <v>3341.831965089584</v>
+        <v>3053.284496222496</v>
       </c>
       <c r="S7">
-        <v>0.0105540913340983</v>
+        <v>0.009443315707502358</v>
       </c>
       <c r="T7">
-        <v>0.01168515559084752</v>
+        <v>0.009867691719996258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J8">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N8">
         <v>161.160385</v>
       </c>
       <c r="O8">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P8">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q8">
-        <v>816.3932422485243</v>
+        <v>816.3932422485245</v>
       </c>
       <c r="R8">
-        <v>7347.539180236718</v>
+        <v>7347.53918023672</v>
       </c>
       <c r="S8">
-        <v>0.02320481711802804</v>
+        <v>0.02272475173475032</v>
       </c>
       <c r="T8">
-        <v>0.02569163842701252</v>
+        <v>0.02374598620628722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J9">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N9">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O9">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P9">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q9">
-        <v>2.875018487196444</v>
+        <v>3.553394261960888</v>
       </c>
       <c r="R9">
-        <v>25.875166384768</v>
+        <v>31.98054835764799</v>
       </c>
       <c r="S9">
-        <v>8.171831263889141E-05</v>
+        <v>9.891066980949582E-05</v>
       </c>
       <c r="T9">
-        <v>9.047592706743903E-05</v>
+        <v>0.0001033556462295372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J10">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N10">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O10">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P10">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q10">
-        <v>403.7811301196746</v>
+        <v>106.036805147752</v>
       </c>
       <c r="R10">
-        <v>2422.686780718048</v>
+        <v>636.220830886512</v>
       </c>
       <c r="S10">
-        <v>0.01147690450539697</v>
+        <v>0.002951592378560155</v>
       </c>
       <c r="T10">
-        <v>0.008471243400719879</v>
+        <v>0.002056156585734187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04533790728558088</v>
+        <v>0.03522729558434242</v>
       </c>
       <c r="J11">
-        <v>0.0459610730244441</v>
+        <v>0.03578230735158529</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N11">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O11">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P11">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q11">
-        <v>0.7168701742897777</v>
+        <v>0.3134515014382222</v>
       </c>
       <c r="R11">
-        <v>6.451831568607999</v>
+        <v>2.821063512944</v>
       </c>
       <c r="S11">
-        <v>2.037601541868133E-05</v>
+        <v>8.725093720092226E-06</v>
       </c>
       <c r="T11">
-        <v>2.255967879674803E-05</v>
+        <v>9.117193338092571E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H12">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I12">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J12">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N12">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O12">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P12">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q12">
-        <v>3035.877030364367</v>
+        <v>3966.90420529962</v>
       </c>
       <c r="R12">
-        <v>27322.8932732793</v>
+        <v>35702.13784769658</v>
       </c>
       <c r="S12">
-        <v>0.08629048801090138</v>
+        <v>0.1104209449023447</v>
       </c>
       <c r="T12">
-        <v>0.0955380948011942</v>
+        <v>0.1153831850460516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H13">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I13">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J13">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N13">
         <v>161.160385</v>
       </c>
       <c r="O13">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P13">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q13">
-        <v>6674.849501711833</v>
+        <v>9546.108169332152</v>
       </c>
       <c r="R13">
-        <v>60073.6455154065</v>
+        <v>85914.97352398936</v>
       </c>
       <c r="S13">
-        <v>0.1897231064174253</v>
+        <v>0.2657211340746336</v>
       </c>
       <c r="T13">
-        <v>0.2100554133451551</v>
+        <v>0.2776624562549735</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H14">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I14">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J14">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N14">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O14">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P14">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q14">
-        <v>23.50621578373334</v>
+        <v>41.54993480781</v>
       </c>
       <c r="R14">
-        <v>211.5559420536</v>
+        <v>373.9494132702899</v>
       </c>
       <c r="S14">
-        <v>0.0006681307612200805</v>
+        <v>0.00115656512601939</v>
       </c>
       <c r="T14">
-        <v>0.0007397332136651493</v>
+        <v>0.0012085403550144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H15">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I15">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J15">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N15">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O15">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P15">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q15">
-        <v>3301.3235971391</v>
+        <v>1239.891218456085</v>
       </c>
       <c r="R15">
-        <v>19807.9415828346</v>
+        <v>7439.34731073651</v>
       </c>
       <c r="S15">
-        <v>0.09383542924492129</v>
+        <v>0.03451304917702182</v>
       </c>
       <c r="T15">
-        <v>0.06926107648372924</v>
+        <v>0.02404269433495388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.2523</v>
+        <v>177.70077</v>
       </c>
       <c r="H16">
-        <v>372.7569</v>
+        <v>533.10231</v>
       </c>
       <c r="I16">
-        <v>0.3706837491945982</v>
+        <v>0.4119137160358794</v>
       </c>
       <c r="J16">
-        <v>0.3757787662847431</v>
+        <v>0.4184034835782469</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N16">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O16">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P16">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q16">
-        <v>5.861146660733334</v>
+        <v>3.66519684843</v>
       </c>
       <c r="R16">
-        <v>52.7503199466</v>
+        <v>32.98677163587</v>
       </c>
       <c r="S16">
-        <v>0.000166594760130137</v>
+        <v>0.0001020227558598604</v>
       </c>
       <c r="T16">
-        <v>0.0001844484409994818</v>
+        <v>0.0001066075872534618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H17">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I17">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J17">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N17">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O17">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P17">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q17">
-        <v>333.131187468115</v>
+        <v>448.126434851176</v>
       </c>
       <c r="R17">
-        <v>1998.78712480869</v>
+        <v>2688.758609107056</v>
       </c>
       <c r="S17">
-        <v>0.009468780339506903</v>
+        <v>0.01247384403835092</v>
       </c>
       <c r="T17">
-        <v>0.006989022425532459</v>
+        <v>0.008689606584967558</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H18">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I18">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J18">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N18">
         <v>161.160385</v>
       </c>
       <c r="O18">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P18">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q18">
-        <v>732.4409119460749</v>
+        <v>1078.388385308487</v>
       </c>
       <c r="R18">
-        <v>4394.64547167645</v>
+        <v>6470.330311850921</v>
       </c>
       <c r="S18">
-        <v>0.02081859149722901</v>
+        <v>0.03001752961878822</v>
       </c>
       <c r="T18">
-        <v>0.01536645667394477</v>
+        <v>0.02091099762334087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H19">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I19">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J19">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N19">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O19">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P19">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q19">
-        <v>2.57937113348</v>
+        <v>4.693741817321333</v>
       </c>
       <c r="R19">
-        <v>15.47622680088</v>
+        <v>28.162450903928</v>
       </c>
       <c r="S19">
-        <v>7.331495697719597E-05</v>
+        <v>0.000130652866762918</v>
       </c>
       <c r="T19">
-        <v>5.4114665254475E-05</v>
+        <v>9.101621022977242E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H20">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I20">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J20">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N20">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O20">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P20">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q20">
-        <v>362.259024042045</v>
+        <v>140.065905949458</v>
       </c>
       <c r="R20">
-        <v>1449.03609616818</v>
+        <v>560.263623797832</v>
       </c>
       <c r="S20">
-        <v>0.01029669767855819</v>
+        <v>0.003898810982851535</v>
       </c>
       <c r="T20">
-        <v>0.005066745550752304</v>
+        <v>0.00181067592240579</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.634385</v>
+        <v>20.074196</v>
       </c>
       <c r="H21">
-        <v>27.26877</v>
+        <v>40.148392</v>
       </c>
       <c r="I21">
-        <v>0.04067566515680267</v>
+        <v>0.04653236263856699</v>
       </c>
       <c r="J21">
-        <v>0.02748983251202704</v>
+        <v>0.0315103250497358</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,28 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N21">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O21">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P21">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q21">
-        <v>0.6431521196300001</v>
+        <v>0.4140436752973334</v>
       </c>
       <c r="R21">
-        <v>3.85891271778</v>
+        <v>2.484262051784</v>
       </c>
       <c r="S21">
-        <v>1.828068453136834E-05</v>
+        <v>1.152513181339048E-05</v>
       </c>
       <c r="T21">
-        <v>1.349319654303767E-05</v>
+        <v>8.02870879180056E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H22">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I22">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J22">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>24.43316566666667</v>
+        <v>22.323506</v>
       </c>
       <c r="N22">
-        <v>73.299497</v>
+        <v>66.970518</v>
       </c>
       <c r="O22">
-        <v>0.2327873509383369</v>
+        <v>0.2680681429232296</v>
       </c>
       <c r="P22">
-        <v>0.2542402694696194</v>
+        <v>0.2757701347495435</v>
       </c>
       <c r="Q22">
-        <v>3204.739777395878</v>
+        <v>4075.101595592372</v>
       </c>
       <c r="R22">
-        <v>28842.6579965629</v>
+        <v>36675.91436033135</v>
       </c>
       <c r="S22">
-        <v>0.09109017149691584</v>
+        <v>0.1134326783483232</v>
       </c>
       <c r="T22">
-        <v>0.1008521523117352</v>
+        <v>0.1185302636896372</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H23">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I23">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J23">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.72012833333333</v>
+        <v>53.72012833333334</v>
       </c>
       <c r="N23">
         <v>161.160385</v>
       </c>
       <c r="O23">
-        <v>0.5118193253134121</v>
+        <v>0.64508930810036</v>
       </c>
       <c r="P23">
-        <v>0.558986915152059</v>
+        <v>0.6636236722513976</v>
       </c>
       <c r="Q23">
-        <v>7046.120607757157</v>
+        <v>9806.478457577125</v>
       </c>
       <c r="R23">
-        <v>63415.08546981442</v>
+        <v>88258.30611819413</v>
       </c>
       <c r="S23">
-        <v>0.2002759597130521</v>
+        <v>0.2729686832375542</v>
       </c>
       <c r="T23">
-        <v>0.2217391982190257</v>
+        <v>0.2852357052154421</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H24">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I24">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J24">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1891813333333333</v>
+        <v>0.2338196666666666</v>
       </c>
       <c r="N24">
-        <v>0.567544</v>
+        <v>0.7014589999999999</v>
       </c>
       <c r="O24">
-        <v>0.001802427979839308</v>
+        <v>0.002807784934062862</v>
       </c>
       <c r="P24">
-        <v>0.001968533829036585</v>
+        <v>0.002888456722871399</v>
       </c>
       <c r="Q24">
-        <v>24.81368776954044</v>
+        <v>42.68321009765266</v>
       </c>
       <c r="R24">
-        <v>223.323189925864</v>
+        <v>384.148890878874</v>
       </c>
       <c r="S24">
-        <v>0.0007052937933809504</v>
+        <v>0.001188110462599922</v>
       </c>
       <c r="T24">
-        <v>0.0007808789456169315</v>
+        <v>0.001241503316988966</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H25">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I25">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J25">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.569517</v>
+        <v>6.9774105</v>
       </c>
       <c r="N25">
-        <v>53.139034</v>
+        <v>13.954821</v>
       </c>
       <c r="O25">
-        <v>0.2531414701853045</v>
+        <v>0.08378708412325747</v>
       </c>
       <c r="P25">
-        <v>0.1843134383789191</v>
+        <v>0.05746294014891389</v>
       </c>
       <c r="Q25">
-        <v>3484.951117581175</v>
+        <v>1273.709275848201</v>
       </c>
       <c r="R25">
-        <v>20909.70670548705</v>
+        <v>7642.255655089207</v>
       </c>
       <c r="S25">
-        <v>0.0990547804217628</v>
+        <v>0.03545439327275531</v>
       </c>
       <c r="T25">
-        <v>0.07311354333941029</v>
+        <v>0.02469845929624864</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>131.1635103333333</v>
+        <v>182.547562</v>
       </c>
       <c r="H26">
-        <v>393.4905309999999</v>
+        <v>547.642686</v>
       </c>
       <c r="I26">
-        <v>0.3913020665845575</v>
+        <v>0.423148670749767</v>
       </c>
       <c r="J26">
-        <v>0.3966804807205673</v>
+        <v>0.4298154468296114</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.04717133333333334</v>
+        <v>0.02062566666666667</v>
       </c>
       <c r="N26">
-        <v>0.141514</v>
+        <v>0.061877</v>
       </c>
       <c r="O26">
-        <v>0.0004494255831071774</v>
+        <v>0.0002476799190900789</v>
       </c>
       <c r="P26">
-        <v>0.0004908431703661447</v>
+        <v>0.0002547961272734595</v>
       </c>
       <c r="Q26">
-        <v>6.187157667103777</v>
+        <v>3.765165164624667</v>
       </c>
       <c r="R26">
-        <v>55.68441900393399</v>
+        <v>33.886486481622</v>
       </c>
       <c r="S26">
-        <v>0.0001758611594458083</v>
+        <v>0.0001048054285343767</v>
       </c>
       <c r="T26">
-        <v>0.0001947079047792496</v>
+        <v>0.0001095153112944965</v>
       </c>
     </row>
   </sheetData>
